--- a/ExcelSheets/CPG.xlsx
+++ b/ExcelSheets/CPG.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zizhensong/Desktop/TS project/TS_MapWebApplication/TS_MapWebApplication/ExcelSheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9192C47-D64F-0844-9980-797824036BC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="327">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +37,9 @@
     <t>PHOTO_0053.jpg</t>
   </si>
   <si>
+    <t>47.65567222222222</t>
+  </si>
+  <si>
     <t>-122.30995</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
     <t>PHOTO_0054.jpg</t>
   </si>
   <si>
+    <t>47.655427777777774</t>
+  </si>
+  <si>
     <t>-122.3091861111111</t>
   </si>
   <si>
@@ -277,6 +277,9 @@
     <t>PHOTO_0074.jpg</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2019:07:12 16:27:29</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
   </si>
   <si>
     <t>PHOTO_0101.jpg</t>
+  </si>
+  <si>
+    <t>47.656575</t>
   </si>
   <si>
     <t>-122.31005833333333</t>
@@ -994,8 +1000,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,23 +1030,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1087,7 +1084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,27 +1116,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,24 +1150,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1364,21 +1325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1398,2684 +1352,2684 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>47.655672222222201</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>47.655427777777703</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>47.656779349122502</v>
-      </c>
-      <c r="C22">
-        <v>-122.311169207096</v>
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23">
-        <v>47.656557129935102</v>
-      </c>
-      <c r="C23">
-        <v>-122.311171889305</v>
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24">
-        <v>47.656387303251798</v>
-      </c>
-      <c r="C24">
-        <v>-122.311169207096</v>
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25">
-        <v>47.656213862664799</v>
-      </c>
-      <c r="C25">
-        <v>-122.31114774942399</v>
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26">
-        <v>47.656035001455898</v>
-      </c>
-      <c r="C26">
-        <v>-122.311171889305</v>
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27">
-        <v>47.656020547998097</v>
-      </c>
-      <c r="C27">
-        <v>-122.310943901538</v>
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28">
-        <v>47.656029581409697</v>
-      </c>
-      <c r="C28">
-        <v>-122.31074810027999</v>
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29">
-        <v>47.6559970611208</v>
-      </c>
-      <c r="C29">
-        <v>-122.31054961681301</v>
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <v>47.656006094536401</v>
-      </c>
-      <c r="C30">
-        <v>-122.31031090021099</v>
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31">
-        <v>47.656128948833903</v>
-      </c>
-      <c r="C31">
-        <v>-122.31024116277599</v>
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32">
-        <v>47.6561144954021</v>
-      </c>
-      <c r="C32">
-        <v>-122.310485243797</v>
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33">
-        <v>47.656130755512599</v>
-      </c>
-      <c r="C33">
-        <v>-122.31063812971099</v>
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34">
-        <v>47.656125335476297</v>
-      </c>
-      <c r="C34">
-        <v>-122.31082051992399</v>
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35">
-        <v>47.656139788905101</v>
-      </c>
-      <c r="C35">
-        <v>-122.310943901538</v>
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36">
-        <v>47.656242769469202</v>
-      </c>
-      <c r="C36">
-        <v>-122.31092780828401</v>
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37">
-        <v>47.656481249995899</v>
-      </c>
-      <c r="C37">
-        <v>-122.310917079448</v>
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38">
-        <v>47.656660109676103</v>
-      </c>
-      <c r="C38">
-        <v>-122.31093585491099</v>
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40">
-        <v>47.655944667279201</v>
-      </c>
-      <c r="C40">
-        <v>-122.31003731489101</v>
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45">
-        <v>47.656098235286599</v>
-      </c>
-      <c r="C45">
-        <v>-122.308945655822</v>
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46">
-        <v>47.656101848646102</v>
-      </c>
-      <c r="C46">
-        <v>-122.309205830097</v>
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47">
-        <v>47.6560892018869</v>
-      </c>
-      <c r="C47">
-        <v>-122.309444546699</v>
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48">
-        <v>47.656112688722899</v>
-      </c>
-      <c r="C48">
-        <v>-122.30974495410899</v>
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49">
-        <v>47.656574999999997</v>
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51">
-        <v>47.655617656252701</v>
-      </c>
-      <c r="C51">
-        <v>-122.309970259666</v>
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52">
-        <v>47.655606816073202</v>
-      </c>
-      <c r="C52">
-        <v>-122.309774458408</v>
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53">
-        <v>47.655605009376302</v>
-      </c>
-      <c r="C53">
-        <v>-122.309500873088</v>
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54">
-        <v>47.655606816073202</v>
-      </c>
-      <c r="C54">
-        <v>-122.30918437242499</v>
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55">
-        <v>47.655621269645401</v>
-      </c>
-      <c r="C55">
-        <v>-122.308934926986</v>
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56">
-        <v>47.655736898079802</v>
-      </c>
-      <c r="C56">
-        <v>-122.308945655822</v>
+        <v>167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57">
-        <v>47.655735091387399</v>
-      </c>
-      <c r="C57">
-        <v>-122.30917096138</v>
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58">
-        <v>47.655751351615997</v>
-      </c>
-      <c r="C58">
-        <v>-122.309444546699</v>
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59">
-        <v>47.655736898079802</v>
-      </c>
-      <c r="C59">
-        <v>-122.309704720973</v>
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60">
-        <v>47.656145208939897</v>
-      </c>
-      <c r="C60">
-        <v>-122.310957312583</v>
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61">
-        <v>47.6563565898565</v>
-      </c>
-      <c r="C61">
-        <v>-122.310946583747</v>
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62">
-        <v>47.656622169795099</v>
-      </c>
-      <c r="C62">
-        <v>-122.310943901538</v>
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B63">
-        <v>47.656750442615099</v>
-      </c>
-      <c r="C63">
-        <v>-122.310954630374</v>
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64">
-        <v>47.656893168340098</v>
-      </c>
-      <c r="C64">
-        <v>-122.310962677001</v>
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65">
-        <v>47.656875101814201</v>
-      </c>
-      <c r="C65">
-        <v>-122.311169207096</v>
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66">
-        <v>47.656745022643101</v>
-      </c>
-      <c r="C66">
-        <v>-122.311174571514</v>
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67">
-        <v>47.656580616560497</v>
-      </c>
-      <c r="C67">
-        <v>-122.311174571514</v>
+        <v>189</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68">
-        <v>47.656264449562102</v>
-      </c>
-      <c r="C68">
-        <v>-122.311150431633</v>
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69">
-        <v>47.656128948833903</v>
-      </c>
-      <c r="C69">
-        <v>-122.31114774942399</v>
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70">
-        <v>47.656016934633101</v>
-      </c>
-      <c r="C70">
-        <v>-122.311163842678</v>
+        <v>195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71">
-        <v>47.655919373681797</v>
-      </c>
-      <c r="C71">
-        <v>-122.31118798255901</v>
+        <v>197</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>195</v>
-      </c>
-      <c r="B72">
-        <v>47.655738704771998</v>
-      </c>
-      <c r="C72">
-        <v>-122.311177253723</v>
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73">
-        <v>47.655601395982501</v>
-      </c>
-      <c r="C73">
-        <v>-122.31118530035</v>
+        <v>201</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74">
-        <v>47.655523707954899</v>
-      </c>
-      <c r="C74">
-        <v>-122.311024367809</v>
+        <v>203</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75">
-        <v>47.655688117365301</v>
-      </c>
-      <c r="C75">
-        <v>-122.311024367809</v>
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76">
-        <v>47.655879626575199</v>
-      </c>
-      <c r="C76">
-        <v>-122.31105923652601</v>
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77">
-        <v>47.656022354680601</v>
-      </c>
-      <c r="C77">
-        <v>-122.31106191873501</v>
+        <v>209</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78">
-        <v>47.656036808137898</v>
-      </c>
-      <c r="C78">
-        <v>-122.31088489294</v>
+        <v>211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79">
-        <v>47.656044034864998</v>
-      </c>
-      <c r="C79">
-        <v>-122.310675680637</v>
+        <v>213</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>211</v>
-      </c>
-      <c r="B80">
-        <v>47.656033194773897</v>
-      </c>
-      <c r="C80">
-        <v>-122.310509383678</v>
+        <v>215</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>213</v>
-      </c>
-      <c r="B81">
-        <v>47.656035001455898</v>
-      </c>
-      <c r="C81">
-        <v>-122.310318946838</v>
+        <v>217</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>215</v>
-      </c>
-      <c r="B82">
-        <v>47.656127142155199</v>
-      </c>
-      <c r="C82">
-        <v>-122.310294806957</v>
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>217</v>
-      </c>
-      <c r="B83">
-        <v>47.656145208939897</v>
-      </c>
-      <c r="C83">
-        <v>-122.31050401925999</v>
+        <v>221</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>219</v>
-      </c>
-      <c r="B84">
-        <v>47.656137982226703</v>
-      </c>
-      <c r="C84">
-        <v>-122.31069177389099</v>
+        <v>223</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85">
-        <v>47.656143402261698</v>
-      </c>
-      <c r="C85">
-        <v>-122.31093853711999</v>
+        <v>225</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>223</v>
-      </c>
-      <c r="B86">
-        <v>47.656024161363</v>
-      </c>
-      <c r="C86">
-        <v>-122.310090959072</v>
+        <v>227</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87">
-        <v>47.656022354680601</v>
-      </c>
-      <c r="C87">
-        <v>-122.309865653514</v>
+        <v>229</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>227</v>
-      </c>
-      <c r="B88">
-        <v>47.656036808137898</v>
-      </c>
-      <c r="C88">
-        <v>-122.309624254703</v>
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>229</v>
-      </c>
-      <c r="B89">
-        <v>47.656018741315698</v>
-      </c>
-      <c r="C89">
-        <v>-122.309637665748</v>
+        <v>233</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>231</v>
-      </c>
-      <c r="B90">
-        <v>47.656051261591102</v>
-      </c>
-      <c r="C90">
-        <v>-122.30905294418299</v>
+        <v>235</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>233</v>
-      </c>
-      <c r="B91">
-        <v>47.656130755512599</v>
-      </c>
-      <c r="C91">
-        <v>-122.30905294418299</v>
+        <v>237</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>235</v>
-      </c>
-      <c r="B92">
-        <v>47.656116302081401</v>
-      </c>
-      <c r="C92">
-        <v>-122.309246063232</v>
+        <v>239</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
       </c>
       <c r="D92" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>237</v>
-      </c>
-      <c r="B93">
-        <v>47.656127142155199</v>
-      </c>
-      <c r="C93">
-        <v>-122.309535741806</v>
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B94">
-        <v>47.656130755512599</v>
-      </c>
-      <c r="C94">
-        <v>-122.309836149215</v>
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" t="s">
+        <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>241</v>
-      </c>
-      <c r="B95">
-        <v>47.656116302081401</v>
-      </c>
-      <c r="C95">
-        <v>-122.31007218360899</v>
+        <v>245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" t="s">
+        <v>87</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96">
-        <v>47.656123528797501</v>
-      </c>
-      <c r="C96">
-        <v>-122.31018483638699</v>
+        <v>247</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>87</v>
       </c>
       <c r="D96" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>245</v>
-      </c>
-      <c r="B97">
-        <v>47.655818199169303</v>
-      </c>
-      <c r="C97">
-        <v>-122.31011509895301</v>
+        <v>249</v>
+      </c>
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" t="s">
+        <v>87</v>
       </c>
       <c r="D97" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>247</v>
-      </c>
-      <c r="B98">
-        <v>47.655655596863603</v>
-      </c>
-      <c r="C98">
-        <v>-122.310147285461</v>
+        <v>251</v>
+      </c>
+      <c r="B98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" t="s">
+        <v>87</v>
       </c>
       <c r="D98" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>249</v>
-      </c>
-      <c r="B99">
-        <v>47.655655596863603</v>
-      </c>
-      <c r="C99">
-        <v>-122.30984956026001</v>
+        <v>253</v>
+      </c>
+      <c r="B99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" t="s">
+        <v>87</v>
       </c>
       <c r="D99" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>251</v>
-      </c>
-      <c r="B100">
-        <v>47.6556537901685</v>
-      </c>
-      <c r="C100">
-        <v>-122.309589385986</v>
+        <v>255</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" t="s">
+        <v>87</v>
       </c>
       <c r="D100" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>253</v>
-      </c>
-      <c r="B101">
-        <v>47.655651983473298</v>
-      </c>
-      <c r="C101">
-        <v>-122.309358716011</v>
+        <v>257</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" t="s">
+        <v>87</v>
       </c>
       <c r="D101" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>255</v>
-      </c>
-      <c r="B102">
-        <v>47.6556465633874</v>
-      </c>
-      <c r="C102">
-        <v>-122.309149503707</v>
+        <v>259</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>87</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>257</v>
-      </c>
-      <c r="B103">
-        <v>47.655666437033098</v>
-      </c>
-      <c r="C103">
-        <v>-122.308905422687</v>
+        <v>261</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>87</v>
       </c>
       <c r="D103" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>259</v>
-      </c>
-      <c r="B104">
-        <v>47.655829039304997</v>
-      </c>
-      <c r="C104">
-        <v>-122.308878600597</v>
+        <v>263</v>
+      </c>
+      <c r="B104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>87</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>261</v>
-      </c>
-      <c r="B105">
-        <v>47.655823619237403</v>
-      </c>
-      <c r="C105">
-        <v>-122.309128046035</v>
+        <v>265</v>
+      </c>
+      <c r="B105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" t="s">
+        <v>87</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>263</v>
-      </c>
-      <c r="B106">
-        <v>47.655821812548098</v>
-      </c>
-      <c r="C106">
-        <v>-122.309356033802</v>
+        <v>267</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>87</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>265</v>
-      </c>
-      <c r="B107">
-        <v>47.655810972410897</v>
-      </c>
-      <c r="C107">
-        <v>-122.309586703777</v>
+        <v>269</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>87</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>267</v>
-      </c>
-      <c r="B108">
-        <v>47.655818199169303</v>
-      </c>
-      <c r="C108">
-        <v>-122.30984956026001</v>
+        <v>271</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109">
-        <v>47.656150628974103</v>
-      </c>
-      <c r="C109">
-        <v>-122.310345768928</v>
+        <v>273</v>
+      </c>
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>271</v>
-      </c>
-      <c r="B110">
-        <v>47.6561578556854</v>
-      </c>
-      <c r="C110">
-        <v>-122.310455739498</v>
+        <v>275</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>273</v>
-      </c>
-      <c r="B111">
-        <v>47.656163275718299</v>
-      </c>
-      <c r="C111">
-        <v>-122.310587167739</v>
+        <v>277</v>
+      </c>
+      <c r="B111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>275</v>
-      </c>
-      <c r="B112">
-        <v>47.6561578556854</v>
-      </c>
-      <c r="C112">
-        <v>-122.310785651206</v>
+        <v>279</v>
+      </c>
+      <c r="B112" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" t="s">
+        <v>87</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>277</v>
-      </c>
-      <c r="B113">
-        <v>47.656137982226703</v>
-      </c>
-      <c r="C113">
-        <v>-122.310949265956</v>
+        <v>281</v>
+      </c>
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" t="s">
+        <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>279</v>
-      </c>
-      <c r="B114">
-        <v>47.656333103130201</v>
-      </c>
-      <c r="C114">
-        <v>-122.310919761657</v>
+        <v>283</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>281</v>
-      </c>
-      <c r="B115">
-        <v>47.656501123323899</v>
-      </c>
-      <c r="C115">
-        <v>-122.31092780828401</v>
+        <v>285</v>
+      </c>
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>283</v>
-      </c>
-      <c r="B116">
-        <v>47.656669142977002</v>
-      </c>
-      <c r="C116">
-        <v>-122.31092780828401</v>
+        <v>287</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>285</v>
-      </c>
-      <c r="B117">
-        <v>47.656813675579301</v>
-      </c>
-      <c r="C117">
-        <v>-122.31092780828401</v>
+        <v>289</v>
+      </c>
+      <c r="B117" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" t="s">
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>287</v>
-      </c>
-      <c r="B118">
-        <v>47.656824515508397</v>
-      </c>
-      <c r="C118">
-        <v>-122.31119602918599</v>
+        <v>291</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119">
-        <v>47.656674562956802</v>
-      </c>
-      <c r="C119">
-        <v>-122.31120139360399</v>
+        <v>293</v>
+      </c>
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120">
-        <v>47.656501123323899</v>
-      </c>
-      <c r="C120">
-        <v>-122.31119334697701</v>
+        <v>295</v>
+      </c>
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>293</v>
-      </c>
-      <c r="B121">
-        <v>47.656340329816302</v>
-      </c>
-      <c r="C121">
-        <v>-122.311182618141</v>
+        <v>297</v>
+      </c>
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" t="s">
+        <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>295</v>
-      </c>
-      <c r="B122">
-        <v>47.656148822296103</v>
-      </c>
-      <c r="C122">
-        <v>-122.31118530035</v>
+        <v>299</v>
+      </c>
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" t="s">
+        <v>87</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>297</v>
-      </c>
-      <c r="B123">
-        <v>47.656018741315698</v>
-      </c>
-      <c r="C123">
-        <v>-122.311163842678</v>
+        <v>301</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>299</v>
-      </c>
-      <c r="B124">
-        <v>47.655829039304997</v>
-      </c>
-      <c r="C124">
-        <v>-122.31119334697701</v>
+        <v>303</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" t="s">
+        <v>87</v>
       </c>
       <c r="D124" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>301</v>
-      </c>
-      <c r="B125">
-        <v>47.655630303126102</v>
-      </c>
-      <c r="C125">
-        <v>-122.311182618141</v>
+        <v>305</v>
+      </c>
+      <c r="B125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
       </c>
       <c r="D125" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>303</v>
-      </c>
-      <c r="B126">
-        <v>47.655473120339799</v>
-      </c>
-      <c r="C126">
-        <v>-122.311179935932</v>
+        <v>307</v>
+      </c>
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" t="s">
+        <v>87</v>
       </c>
       <c r="D126" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>305</v>
-      </c>
-      <c r="B127">
-        <v>47.655465893533702</v>
-      </c>
-      <c r="C127">
-        <v>-122.311086058616</v>
+        <v>309</v>
+      </c>
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" t="s">
+        <v>87</v>
       </c>
       <c r="D127" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>307</v>
-      </c>
-      <c r="B128">
-        <v>47.655576102218802</v>
-      </c>
-      <c r="C128">
-        <v>-122.311080694198</v>
+        <v>311</v>
+      </c>
+      <c r="B128" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" t="s">
+        <v>87</v>
       </c>
       <c r="D128" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E128">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>309</v>
-      </c>
-      <c r="B129">
-        <v>47.655680890588897</v>
-      </c>
-      <c r="C129">
-        <v>-122.311086058616</v>
+        <v>313</v>
+      </c>
+      <c r="B129" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" t="s">
+        <v>87</v>
       </c>
       <c r="D129" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>311</v>
-      </c>
-      <c r="B130">
-        <v>47.655904920192</v>
-      </c>
-      <c r="C130">
-        <v>-122.311037778854</v>
+        <v>315</v>
+      </c>
+      <c r="B130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
       </c>
       <c r="D130" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>313</v>
-      </c>
-      <c r="B131">
-        <v>47.656025968045299</v>
-      </c>
-      <c r="C131">
-        <v>-122.311040461063</v>
+        <v>317</v>
+      </c>
+      <c r="B131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" t="s">
+        <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E131">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>315</v>
-      </c>
-      <c r="B132">
-        <v>47.656022354680601</v>
-      </c>
-      <c r="C132">
-        <v>-122.310917079448</v>
+        <v>319</v>
+      </c>
+      <c r="B132" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" t="s">
+        <v>87</v>
       </c>
       <c r="D132" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E132">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>317</v>
-      </c>
-      <c r="B133">
-        <v>47.656024161363</v>
-      </c>
-      <c r="C133">
-        <v>-122.31074005365301</v>
+        <v>321</v>
+      </c>
+      <c r="B133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" t="s">
+        <v>87</v>
       </c>
       <c r="D133" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E133">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>319</v>
-      </c>
-      <c r="B134">
-        <v>47.656018741315698</v>
-      </c>
-      <c r="C134">
-        <v>-122.31049865484199</v>
+        <v>323</v>
+      </c>
+      <c r="B134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" t="s">
+        <v>87</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>321</v>
-      </c>
-      <c r="B135">
-        <v>47.656027774727498</v>
-      </c>
-      <c r="C135">
-        <v>-122.31024920940401</v>
+        <v>325</v>
+      </c>
+      <c r="B135" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" t="s">
+        <v>87</v>
       </c>
       <c r="D135" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
